--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_24.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01657795906066895</v>
+        <v>0.0005919933319091797</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002295017242431641</v>
+        <v>0.0005950927734375</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000186920166015625</v>
+        <v>0.009830236434936523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 1), (0, 0), (0, 3), (1, 0), (0, 4), (1, 4), (3, 4), (3, 0), (4, 0), (4, 3), (4, 1), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 1], [0, 0], [0, 3], [1, 0], [0, 4], [1, 4], [3, 4], [3, 0], [4, 0], [4, 3], [4, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 0), (0, 4), (2, 4), (3, 0), (3, 1), (3, 3), (3, 4), (4, 0), (4, 1), (4, 2), (4, 3), (0, 1), (0, 2), (0, 3), (1, 0), (1, 1), (1, 3), (1, 4), (2, 1), (2, 2), (2, 3), (3, 2), (1, 2)]</t>
+          <t>[[0, 0], [2, 0], [0, 4], [2, 4], [3, 0], [3, 1], [3, 3], [3, 4], [4, 0], [4, 1], [4, 2], [4, 3], [0, 1], [0, 2], [0, 3], [1, 0], [1, 1], [1, 3], [1, 4], [2, 1], [2, 2], [2, 3], [3, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -819,110 +819,120 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>0.9995171975074401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02586078643798828</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0182499885559082</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
